--- a/static/quiz (copy).xlsx
+++ b/static/quiz (copy).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t xml:space="preserve">题目</t>
   </si>
@@ -37,109 +37,98 @@
     <t xml:space="preserve">知识点</t>
   </si>
   <si>
-    <t xml:space="preserve">世界上第一台计算机的电子元器件主要是晶体管</t>
-  </si>
-  <si>
-    <t xml:space="preserve">判断题</t>
-  </si>
-  <si>
-    <t xml:space="preserve">错误</t>
+    <t xml:space="preserve">计算机系统由（）组成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单选题</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">主机和系统软件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;B.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">硬件系统和应用软件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;C.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">硬件系统和软件系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;D.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">微处理器和软件系统</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">计算机基础</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数据库管理数据比用文件管理数据效率更高</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正确</t>
-  </si>
-  <si>
-    <t xml:space="preserve">计算机系统由（）组成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单选题</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">主机和系统软件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">;B.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">硬件系统和应用软件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">;C.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">硬件系统和软件系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">;D.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">微处理器和软件系统</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
   </si>
 </sst>
 </file>
@@ -177,6 +166,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,17 +239,17 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="5:5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
@@ -280,52 +270,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
